--- a/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a75_ccg.xlsx
+++ b/Multiknapsack/results/random_recourse/singlecut/M50_N100_T50_a75_ccg.xlsx
@@ -477,7 +477,7 @@
         <v>-868.6204007882413</v>
       </c>
       <c r="C2">
-        <v>4145.560346086</v>
+        <v>4194.655309155</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-871.4259897997582</v>
+        <v>-871.4302886416392</v>
       </c>
       <c r="C3">
-        <v>4976.739428332</v>
+        <v>4936.61405154</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>1269700</v>
+        <v>1214500</v>
       </c>
       <c r="H3">
-        <v>1270819</v>
+        <v>1215566</v>
       </c>
       <c r="I3">
-        <v>1150</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -532,28 +532,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-878.4697626433847</v>
+        <v>-878.4701146021378</v>
       </c>
       <c r="C4">
-        <v>4718.599611223</v>
+        <v>4927.976137655</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>1214500</v>
+        <v>1159300</v>
       </c>
       <c r="H4">
-        <v>1215566</v>
+        <v>1160313</v>
       </c>
       <c r="I4">
-        <v>1100</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -564,7 +564,7 @@
         <v>-892.0673632078748</v>
       </c>
       <c r="C5">
-        <v>2724.957174906</v>
+        <v>3052.628417522</v>
       </c>
       <c r="D5">
         <v>19</v>
@@ -593,7 +593,7 @@
         <v>-870.2837508356414</v>
       </c>
       <c r="C6">
-        <v>4200.519383636</v>
+        <v>4423.042230397</v>
       </c>
       <c r="D6">
         <v>22</v>
@@ -619,28 +619,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-850.8159266383122</v>
+        <v>-850.816647559355</v>
       </c>
       <c r="C7">
-        <v>4880.343205897</v>
+        <v>4735.673137478</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>1269700</v>
+        <v>1214500</v>
       </c>
       <c r="H7">
-        <v>1270819</v>
+        <v>1215566</v>
       </c>
       <c r="I7">
-        <v>1150</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -651,7 +651,7 @@
         <v>-852.6134658837018</v>
       </c>
       <c r="C8">
-        <v>4634.849953482</v>
+        <v>4563.202549726</v>
       </c>
       <c r="D8">
         <v>23</v>
@@ -680,7 +680,7 @@
         <v>-872.6935604937044</v>
       </c>
       <c r="C9">
-        <v>1892.75812523</v>
+        <v>2082.997604027</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -709,7 +709,7 @@
         <v>-866.803494998047</v>
       </c>
       <c r="C10">
-        <v>4695.000640003</v>
+        <v>4630.016667034</v>
       </c>
       <c r="D10">
         <v>23</v>
@@ -738,7 +738,7 @@
         <v>-860.3587166687764</v>
       </c>
       <c r="C11">
-        <v>3910.823900825</v>
+        <v>3765.478698212</v>
       </c>
       <c r="D11">
         <v>22</v>
@@ -800,7 +800,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>6.860166110799804</v>
+        <v>7.147417766407471</v>
       </c>
       <c r="E2">
         <v>48.08328</v>
@@ -817,7 +817,7 @@
         <v>0.09526615807684176</v>
       </c>
       <c r="D3">
-        <v>7.8759422645703125</v>
+        <v>7.36566400440393</v>
       </c>
       <c r="E3">
         <v>19.35864</v>
@@ -834,7 +834,7 @@
         <v>0.09488497358409813</v>
       </c>
       <c r="D4">
-        <v>14.302708779900634</v>
+        <v>15.725943665806273</v>
       </c>
       <c r="E4">
         <v>11.18599</v>
@@ -851,7 +851,7 @@
         <v>0.09943089909903109</v>
       </c>
       <c r="D5">
-        <v>16.96511777555896</v>
+        <v>24.57552679746143</v>
       </c>
       <c r="E5">
         <v>8.00465</v>
@@ -868,7 +868,7 @@
         <v>0.09050118663208372</v>
       </c>
       <c r="D6">
-        <v>30.28779973678064</v>
+        <v>33.26485167051416</v>
       </c>
       <c r="E6">
         <v>7.4651</v>
@@ -885,7 +885,7 @@
         <v>0.09653534146401722</v>
       </c>
       <c r="D7">
-        <v>30.329350209804076</v>
+        <v>31.896385914931518</v>
       </c>
       <c r="E7">
         <v>5.91407</v>
@@ -902,7 +902,7 @@
         <v>0.09855589011415396</v>
       </c>
       <c r="D8">
-        <v>54.58862900098877</v>
+        <v>48.04331616089661</v>
       </c>
       <c r="E8">
         <v>4.54904</v>
@@ -919,7 +919,7 @@
         <v>0.09919179599772363</v>
       </c>
       <c r="D9">
-        <v>48.17884105144043</v>
+        <v>43.5402683732179</v>
       </c>
       <c r="E9">
         <v>3.36514</v>
@@ -936,7 +936,7 @@
         <v>0.09966086654889811</v>
       </c>
       <c r="D10">
-        <v>66.2166427385835</v>
+        <v>61.20415639793213</v>
       </c>
       <c r="E10">
         <v>1.97704</v>
@@ -953,7 +953,7 @@
         <v>0.09953038427646116</v>
       </c>
       <c r="D11">
-        <v>90.96090799675672</v>
+        <v>97.72116228106543</v>
       </c>
       <c r="E11">
         <v>1.80642</v>
@@ -970,7 +970,7 @@
         <v>0.09978833542433972</v>
       </c>
       <c r="D12">
-        <v>96.56461634795203</v>
+        <v>94.85713151561292</v>
       </c>
       <c r="E12">
         <v>1.37028</v>
@@ -987,7 +987,7 @@
         <v>0.09919160894810043</v>
       </c>
       <c r="D13">
-        <v>142.136988802229</v>
+        <v>144.5930236975375</v>
       </c>
       <c r="E13">
         <v>1.2353</v>
@@ -1004,7 +1004,7 @@
         <v>0.09967875504649787</v>
       </c>
       <c r="D14">
-        <v>131.03478647870568</v>
+        <v>132.07794883659741</v>
       </c>
       <c r="E14">
         <v>1.17383</v>
@@ -1021,7 +1021,7 @@
         <v>0.08727082396691693</v>
       </c>
       <c r="D15">
-        <v>189.15200972072424</v>
+        <v>199.48928278726342</v>
       </c>
       <c r="E15">
         <v>0.96203</v>
@@ -1038,7 +1038,7 @@
         <v>0.09944063419997294</v>
       </c>
       <c r="D16">
-        <v>160.9773875871465</v>
+        <v>163.76229785919398</v>
       </c>
       <c r="E16">
         <v>0.76535</v>
@@ -1055,7 +1055,7 @@
         <v>0.0920459649464269</v>
       </c>
       <c r="D17">
-        <v>179.5690068148374</v>
+        <v>184.32844768291162</v>
       </c>
       <c r="E17">
         <v>0.56313</v>
@@ -1072,7 +1072,7 @@
         <v>0.09527222157106836</v>
       </c>
       <c r="D18">
-        <v>264.8707835746528</v>
+        <v>268.26261955322474</v>
       </c>
       <c r="E18">
         <v>0.49234</v>
@@ -1089,7 +1089,7 @@
         <v>0.08170693304124582</v>
       </c>
       <c r="D19">
-        <v>288.6173002650852</v>
+        <v>301.73745040260366</v>
       </c>
       <c r="E19">
         <v>0.43199</v>
@@ -1106,7 +1106,7 @@
         <v>0.09171506024512714</v>
       </c>
       <c r="D20">
-        <v>257.40079509912647</v>
+        <v>259.079796931291</v>
       </c>
       <c r="E20">
         <v>0.21918</v>
@@ -1123,7 +1123,7 @@
         <v>0.09912726712775138</v>
       </c>
       <c r="D21">
-        <v>338.05861751031284</v>
+        <v>325.16012991617043</v>
       </c>
       <c r="E21">
         <v>0.18692</v>
@@ -1140,7 +1140,7 @@
         <v>0.09501804633502543</v>
       </c>
       <c r="D22">
-        <v>404.80192798324805</v>
+        <v>363.4351852741086</v>
       </c>
       <c r="E22">
         <v>0.07259</v>
@@ -1157,7 +1157,7 @@
         <v>0.09762080590713737</v>
       </c>
       <c r="D23">
-        <v>359.9123316179335</v>
+        <v>354.1854492550358</v>
       </c>
       <c r="E23">
         <v>0.00706</v>
@@ -1174,7 +1174,7 @@
         <v>0.08109983994112319</v>
       </c>
       <c r="D24">
-        <v>567.7302032167674</v>
+        <v>529.5875807534949</v>
       </c>
       <c r="E24">
         <v>0.0</v>
@@ -1221,7 +1221,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>6.395002417410766</v>
+        <v>10.14615488461731</v>
       </c>
       <c r="E2">
         <v>49.16368</v>
@@ -1238,7 +1238,7 @@
         <v>0.09690563847356701</v>
       </c>
       <c r="D3">
-        <v>6.6414464676553955</v>
+        <v>8.211055367647582</v>
       </c>
       <c r="E3">
         <v>17.16815</v>
@@ -1255,7 +1255,7 @@
         <v>0.09941215588379713</v>
       </c>
       <c r="D4">
-        <v>11.008352265308595</v>
+        <v>9.97638072385315</v>
       </c>
       <c r="E4">
         <v>12.85424</v>
@@ -1272,7 +1272,7 @@
         <v>0.09437606439506471</v>
       </c>
       <c r="D5">
-        <v>23.963213853561157</v>
+        <v>24.212650102529906</v>
       </c>
       <c r="E5">
         <v>7.95517</v>
@@ -1289,7 +1289,7 @@
         <v>0.09908559640689492</v>
       </c>
       <c r="D6">
-        <v>26.224281457331788</v>
+        <v>26.555743475684082</v>
       </c>
       <c r="E6">
         <v>6.46986</v>
@@ -1306,7 +1306,7 @@
         <v>0.09081457684210728</v>
       </c>
       <c r="D7">
-        <v>45.49213178050708</v>
+        <v>41.58970743661743</v>
       </c>
       <c r="E7">
         <v>4.95255</v>
@@ -1323,7 +1323,7 @@
         <v>0.09988754714498911</v>
       </c>
       <c r="D8">
-        <v>56.393401092966556</v>
+        <v>55.5770420133335</v>
       </c>
       <c r="E8">
         <v>3.80794</v>
@@ -1340,7 +1340,7 @@
         <v>0.09477864935007814</v>
       </c>
       <c r="D9">
-        <v>68.4365102641073</v>
+        <v>64.89380555669752</v>
       </c>
       <c r="E9">
         <v>3.4258</v>
@@ -1357,7 +1357,7 @@
         <v>0.08863565192956845</v>
       </c>
       <c r="D10">
-        <v>79.09190237151978</v>
+        <v>66.44873874504505</v>
       </c>
       <c r="E10">
         <v>2.76584</v>
@@ -1374,7 +1374,7 @@
         <v>0.09979510282720379</v>
       </c>
       <c r="D11">
-        <v>98.69752924465625</v>
+        <v>92.5531550632683</v>
       </c>
       <c r="E11">
         <v>1.97978</v>
@@ -1391,7 +1391,7 @@
         <v>0.09934097459415217</v>
       </c>
       <c r="D12">
-        <v>109.37954234334558</v>
+        <v>111.9662207511643</v>
       </c>
       <c r="E12">
         <v>1.45276</v>
@@ -1408,7 +1408,7 @@
         <v>0.09999726824958176</v>
       </c>
       <c r="D13">
-        <v>109.10605842445142</v>
+        <v>113.12322392613733</v>
       </c>
       <c r="E13">
         <v>1.69025</v>
@@ -1425,7 +1425,7 @@
         <v>0.09950799914117801</v>
       </c>
       <c r="D14">
-        <v>134.87474795395508</v>
+        <v>127.24426844940979</v>
       </c>
       <c r="E14">
         <v>1.18677</v>
@@ -1442,7 +1442,7 @@
         <v>0.09128700833809211</v>
       </c>
       <c r="D15">
-        <v>159.80805327546875</v>
+        <v>148.51403225878198</v>
       </c>
       <c r="E15">
         <v>1.04247</v>
@@ -1459,7 +1459,7 @@
         <v>0.09242876380965691</v>
       </c>
       <c r="D16">
-        <v>217.7518812679447</v>
+        <v>204.9485670451001</v>
       </c>
       <c r="E16">
         <v>0.35108</v>
@@ -1476,7 +1476,7 @@
         <v>0.0875612574930947</v>
       </c>
       <c r="D17">
-        <v>231.90404548165014</v>
+        <v>216.9603622576488</v>
       </c>
       <c r="E17">
         <v>0.12959</v>
@@ -1493,7 +1493,7 @@
         <v>0.09251327409571747</v>
       </c>
       <c r="D18">
-        <v>203.32609672564197</v>
+        <v>206.1788921674214</v>
       </c>
       <c r="E18">
         <v>0.10963</v>
@@ -1510,7 +1510,7 @@
         <v>0.07890025748609088</v>
       </c>
       <c r="D19">
-        <v>237.2997355109187</v>
+        <v>230.224495129443</v>
       </c>
       <c r="E19">
         <v>0.00976</v>
@@ -1527,7 +1527,7 @@
         <v>0.09036996358333295</v>
       </c>
       <c r="D20">
-        <v>225.09276906211463</v>
+        <v>230.2788379793943</v>
       </c>
       <c r="E20">
         <v>0.00689</v>
@@ -1544,7 +1544,7 @@
         <v>0.09684889032275501</v>
       </c>
       <c r="D21">
-        <v>305.82043967609644</v>
+        <v>303.52102491151</v>
       </c>
       <c r="E21">
         <v>0.00351</v>
@@ -1561,7 +1561,7 @@
         <v>0.08184035722465556</v>
       </c>
       <c r="D22">
-        <v>314.0490123271616</v>
+        <v>306.4106145470378</v>
       </c>
       <c r="E22">
         <v>0.00013</v>
@@ -1578,7 +1578,7 @@
         <v>0.09431897968160698</v>
       </c>
       <c r="D23">
-        <v>324.05621600438377</v>
+        <v>318.9138882214303</v>
       </c>
       <c r="E23">
         <v>0.0</v>
@@ -1625,7 +1625,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.889727595362671</v>
+        <v>8.979393377223877</v>
       </c>
       <c r="E2">
         <v>50.79565</v>
@@ -1642,7 +1642,7 @@
         <v>0.09918272812058217</v>
       </c>
       <c r="D3">
-        <v>5.978118987583252</v>
+        <v>11.345976219054199</v>
       </c>
       <c r="E3">
         <v>15.06556</v>
@@ -1659,7 +1659,7 @@
         <v>0.09843331628649951</v>
       </c>
       <c r="D4">
-        <v>11.467213479415161</v>
+        <v>17.533424035337767</v>
       </c>
       <c r="E4">
         <v>11.5757</v>
@@ -1676,7 +1676,7 @@
         <v>0.09583712952600466</v>
       </c>
       <c r="D5">
-        <v>24.168912317632813</v>
+        <v>32.965926870390625</v>
       </c>
       <c r="E5">
         <v>7.45334</v>
@@ -1693,7 +1693,7 @@
         <v>0.09976781570282485</v>
       </c>
       <c r="D6">
-        <v>30.016679953301026</v>
+        <v>38.86089852259229</v>
       </c>
       <c r="E6">
         <v>6.13905</v>
@@ -1710,7 +1710,7 @@
         <v>0.09984930068486117</v>
       </c>
       <c r="D7">
-        <v>32.65647078559033</v>
+        <v>39.4973176754834</v>
       </c>
       <c r="E7">
         <v>4.71525</v>
@@ -1727,7 +1727,7 @@
         <v>0.0995036954716999</v>
       </c>
       <c r="D8">
-        <v>50.85507181515491</v>
+        <v>64.68095412622668</v>
       </c>
       <c r="E8">
         <v>4.00848</v>
@@ -1744,7 +1744,7 @@
         <v>0.09887958545978047</v>
       </c>
       <c r="D9">
-        <v>35.54410641609692</v>
+        <v>44.02649880402698</v>
       </c>
       <c r="E9">
         <v>3.83154</v>
@@ -1761,7 +1761,7 @@
         <v>0.08697070308959623</v>
       </c>
       <c r="D10">
-        <v>68.28312935605896</v>
+        <v>75.30790703023608</v>
       </c>
       <c r="E10">
         <v>3.27736</v>
@@ -1778,7 +1778,7 @@
         <v>0.09872652457223582</v>
       </c>
       <c r="D11">
-        <v>77.70352429848938</v>
+        <v>82.91021138934057</v>
       </c>
       <c r="E11">
         <v>2.61611</v>
@@ -1795,7 +1795,7 @@
         <v>0.09988207286831581</v>
       </c>
       <c r="D12">
-        <v>82.73103647537818</v>
+        <v>87.53628123129138</v>
       </c>
       <c r="E12">
         <v>1.35232</v>
@@ -1812,7 +1812,7 @@
         <v>0.09986592250378593</v>
       </c>
       <c r="D13">
-        <v>117.2648061164154</v>
+        <v>118.35956232554797</v>
       </c>
       <c r="E13">
         <v>1.1438</v>
@@ -1829,7 +1829,7 @@
         <v>0.09179171441114013</v>
       </c>
       <c r="D14">
-        <v>127.80001819430822</v>
+        <v>128.53331692362866</v>
       </c>
       <c r="E14">
         <v>0.74983</v>
@@ -1846,7 +1846,7 @@
         <v>0.09742511238160108</v>
       </c>
       <c r="D15">
-        <v>182.4117674234614</v>
+        <v>174.11191095046777</v>
       </c>
       <c r="E15">
         <v>0.66843</v>
@@ -1863,7 +1863,7 @@
         <v>0.09448067843823141</v>
       </c>
       <c r="D16">
-        <v>168.46072848783325</v>
+        <v>169.05035993185217</v>
       </c>
       <c r="E16">
         <v>0.43434</v>
@@ -1880,7 +1880,7 @@
         <v>0.081177099802955</v>
       </c>
       <c r="D17">
-        <v>188.67651549535682</v>
+        <v>188.905087042672</v>
       </c>
       <c r="E17">
         <v>0.44342</v>
@@ -1897,7 +1897,7 @@
         <v>0.09867986953722381</v>
       </c>
       <c r="D18">
-        <v>309.9464756446322</v>
+        <v>308.6464796976283</v>
       </c>
       <c r="E18">
         <v>0.03897</v>
@@ -1914,7 +1914,7 @@
         <v>0.0917811355470513</v>
       </c>
       <c r="D19">
-        <v>305.36600863377976</v>
+        <v>314.75187214503603</v>
       </c>
       <c r="E19">
         <v>0.01843</v>
@@ -1931,7 +1931,7 @@
         <v>0.0999125001216486</v>
       </c>
       <c r="D20">
-        <v>282.9302484479016</v>
+        <v>286.4765371725746</v>
       </c>
       <c r="E20">
         <v>0.00575</v>
@@ -1948,7 +1948,7 @@
         <v>0.08421433089637045</v>
       </c>
       <c r="D21">
-        <v>346.193567875693</v>
+        <v>361.118081636175</v>
       </c>
       <c r="E21">
         <v>0.00387</v>
@@ -1965,7 +1965,7 @@
         <v>0.09989841795449882</v>
       </c>
       <c r="D22">
-        <v>348.34671610964074</v>
+        <v>355.84647896281604</v>
       </c>
       <c r="E22">
         <v>0.00195</v>
@@ -1982,7 +1982,7 @@
         <v>0.0928255184644437</v>
       </c>
       <c r="D23">
-        <v>406.7457797573535</v>
+        <v>420.78053835759374</v>
       </c>
       <c r="E23">
         <v>0.0</v>
@@ -1994,444 +1994,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-1504.649137580976</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>8.31172721786316</v>
-      </c>
-      <c r="E2">
-        <v>45.4608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-1068.0780125485996</v>
-      </c>
-      <c r="C3">
-        <v>0.09696075410878595</v>
-      </c>
-      <c r="D3">
-        <v>10.123717941889161</v>
-      </c>
-      <c r="E3">
-        <v>20.66551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-964.4294222584559</v>
-      </c>
-      <c r="C4">
-        <v>0.09880152676199214</v>
-      </c>
-      <c r="D4">
-        <v>15.481735882120606</v>
-      </c>
-      <c r="E4">
-        <v>14.44046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-923.2253780636635</v>
-      </c>
-      <c r="C5">
-        <v>0.09834866848476806</v>
-      </c>
-      <c r="D5">
-        <v>10.842305696265747</v>
-      </c>
-      <c r="E5">
-        <v>7.73898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-907.6172793908006</v>
-      </c>
-      <c r="C6">
-        <v>0.09849486896774796</v>
-      </c>
-      <c r="D6">
-        <v>32.264559056421874</v>
-      </c>
-      <c r="E6">
-        <v>7.12405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-893.5633296904084</v>
-      </c>
-      <c r="C7">
-        <v>0.09966843671372196</v>
-      </c>
-      <c r="D7">
-        <v>41.74007599106665</v>
-      </c>
-      <c r="E7">
-        <v>6.13638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-885.7497368208454</v>
-      </c>
-      <c r="C8">
-        <v>0.0998177469435148</v>
-      </c>
-      <c r="D8">
-        <v>56.83936485693994</v>
-      </c>
-      <c r="E8">
-        <v>4.13931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-882.111604860442</v>
-      </c>
-      <c r="C9">
-        <v>0.09706622871520026</v>
-      </c>
-      <c r="D9">
-        <v>55.86557997214429</v>
-      </c>
-      <c r="E9">
-        <v>3.46868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-878.4341959075991</v>
-      </c>
-      <c r="C10">
-        <v>0.0995224256147157</v>
-      </c>
-      <c r="D10">
-        <v>67.75334624303393</v>
-      </c>
-      <c r="E10">
-        <v>2.9613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-876.4139115575961</v>
-      </c>
-      <c r="C11">
-        <v>0.09942825977483667</v>
-      </c>
-      <c r="D11">
-        <v>89.37558255436707</v>
-      </c>
-      <c r="E11">
-        <v>2.07083</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-875.4043732276143</v>
-      </c>
-      <c r="C12">
-        <v>0.09744583664104756</v>
-      </c>
-      <c r="D12">
-        <v>91.79410142041333</v>
-      </c>
-      <c r="E12">
-        <v>2.10828</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>-874.1916742219892</v>
-      </c>
-      <c r="C13">
-        <v>0.07888713804810002</v>
-      </c>
-      <c r="D13">
-        <v>112.55900547244238</v>
-      </c>
-      <c r="E13">
-        <v>1.63279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-873.3904528357409</v>
-      </c>
-      <c r="C14">
-        <v>0.0840217155103531</v>
-      </c>
-      <c r="D14">
-        <v>138.87426390337538</v>
-      </c>
-      <c r="E14">
-        <v>1.30856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>-872.8539477913196</v>
-      </c>
-      <c r="C15">
-        <v>0.08363264703545267</v>
-      </c>
-      <c r="D15">
-        <v>143.95249692076246</v>
-      </c>
-      <c r="E15">
-        <v>1.09111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>-872.5269929079709</v>
-      </c>
-      <c r="C16">
-        <v>0.09815636638961156</v>
-      </c>
-      <c r="D16">
-        <v>162.7397074253164</v>
-      </c>
-      <c r="E16">
-        <v>0.84807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>-872.3307120677721</v>
-      </c>
-      <c r="C17">
-        <v>0.09775872252022068</v>
-      </c>
-      <c r="D17">
-        <v>233.45606177637</v>
-      </c>
-      <c r="E17">
-        <v>0.6639</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>-872.2158010605549</v>
-      </c>
-      <c r="C18">
-        <v>0.08292026732766816</v>
-      </c>
-      <c r="D18">
-        <v>190.45899000803175</v>
-      </c>
-      <c r="E18">
-        <v>0.63423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>-872.0827588343163</v>
-      </c>
-      <c r="C19">
-        <v>0.0998194691589269</v>
-      </c>
-      <c r="D19">
-        <v>235.2536038574885</v>
-      </c>
-      <c r="E19">
-        <v>0.43766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>-872.0182461898708</v>
-      </c>
-      <c r="C20">
-        <v>0.09909756727041298</v>
-      </c>
-      <c r="D20">
-        <v>258.3461682768649</v>
-      </c>
-      <c r="E20">
-        <v>0.17398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>-871.5202085289579</v>
-      </c>
-      <c r="C21">
-        <v>0.09438138078878205</v>
-      </c>
-      <c r="D21">
-        <v>343.60093869220225</v>
-      </c>
-      <c r="E21">
-        <v>0.19959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>-871.5064978994183</v>
-      </c>
-      <c r="C22">
-        <v>0.09964734058321945</v>
-      </c>
-      <c r="D22">
-        <v>361.68326429714415</v>
-      </c>
-      <c r="E22">
-        <v>0.01843</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>-871.4563561903781</v>
-      </c>
-      <c r="C23">
-        <v>0.08422251365183987</v>
-      </c>
-      <c r="D23">
-        <v>444.17751888695045</v>
-      </c>
-      <c r="E23">
-        <v>0.01638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>-871.4302886416392</v>
-      </c>
-      <c r="C24">
-        <v>0.08325699394982969</v>
-      </c>
-      <c r="D24">
-        <v>357.063039769433</v>
-      </c>
-      <c r="E24">
-        <v>0.00316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>-871.4259897997582</v>
-      </c>
-      <c r="C25">
-        <v>0.09609228346587818</v>
-      </c>
-      <c r="D25">
-        <v>368.2713641267542</v>
-      </c>
-      <c r="E25">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -2461,16 +2023,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1518.1300477206896</v>
+        <v>-1504.649137580976</v>
       </c>
       <c r="C2">
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>6.147848698478516</v>
+        <v>11.375908158644409</v>
       </c>
       <c r="E2">
-        <v>49.8785</v>
+        <v>45.4608</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2478,16 +2040,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1024.1734852945565</v>
+        <v>-1068.0780125485996</v>
       </c>
       <c r="C3">
-        <v>0.05324174989841829</v>
+        <v>0.09696075410878595</v>
       </c>
       <c r="D3">
-        <v>8.983682990898926</v>
+        <v>17.47347973714551</v>
       </c>
       <c r="E3">
-        <v>15.65992</v>
+        <v>20.66551</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2495,16 +2057,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-955.4344469708035</v>
+        <v>-964.4294222584559</v>
       </c>
       <c r="C4">
-        <v>0.09068393926219658</v>
+        <v>0.09880152676199214</v>
       </c>
       <c r="D4">
-        <v>13.901579721216919</v>
+        <v>19.45350856005005</v>
       </c>
       <c r="E4">
-        <v>10.91201</v>
+        <v>14.44046</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2512,16 +2074,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-928.3809285701966</v>
+        <v>-923.2253780636635</v>
       </c>
       <c r="C5">
-        <v>0.09877906112820255</v>
+        <v>0.09834866848476806</v>
       </c>
       <c r="D5">
-        <v>19.690564837470582</v>
+        <v>19.2828579035625</v>
       </c>
       <c r="E5">
-        <v>7.05568</v>
+        <v>7.73898</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2529,16 +2091,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-914.9747720189687</v>
+        <v>-907.6172793908006</v>
       </c>
       <c r="C6">
-        <v>0.09748960802484263</v>
+        <v>0.09849486896774796</v>
       </c>
       <c r="D6">
-        <v>23.953608422001953</v>
+        <v>59.70127476358765</v>
       </c>
       <c r="E6">
-        <v>6.27608</v>
+        <v>7.12405</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2546,16 +2108,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-903.8298211054771</v>
+        <v>-893.5633296904084</v>
       </c>
       <c r="C7">
-        <v>0.09359448606753212</v>
+        <v>0.09966843671372196</v>
       </c>
       <c r="D7">
-        <v>43.91004047760608</v>
+        <v>68.28019808323364</v>
       </c>
       <c r="E7">
-        <v>5.52899</v>
+        <v>6.13638</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2563,16 +2125,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-894.9646758288857</v>
+        <v>-885.7497368208454</v>
       </c>
       <c r="C8">
-        <v>0.09899945205468558</v>
+        <v>0.0998177469435148</v>
       </c>
       <c r="D8">
-        <v>40.547233714963866</v>
+        <v>94.06346885766662</v>
       </c>
       <c r="E8">
-        <v>4.91899</v>
+        <v>4.13931</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2580,16 +2142,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-889.0170611834408</v>
+        <v>-882.111604860442</v>
       </c>
       <c r="C9">
-        <v>0.09974007613868954</v>
+        <v>0.09706622871520026</v>
       </c>
       <c r="D9">
-        <v>64.43104180973498</v>
+        <v>88.60886581380493</v>
       </c>
       <c r="E9">
-        <v>3.39873</v>
+        <v>3.46868</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2597,16 +2159,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-886.3495198824335</v>
+        <v>-878.4341959075991</v>
       </c>
       <c r="C10">
-        <v>0.09655968265952185</v>
+        <v>0.0995224256147157</v>
       </c>
       <c r="D10">
-        <v>87.4314659618473</v>
+        <v>109.4995872975846</v>
       </c>
       <c r="E10">
-        <v>2.81828</v>
+        <v>2.9613</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2614,16 +2176,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-884.1219411448507</v>
+        <v>-876.4139115575961</v>
       </c>
       <c r="C11">
-        <v>0.09905351937452642</v>
+        <v>0.09942825977483667</v>
       </c>
       <c r="D11">
-        <v>107.74477570610973</v>
+        <v>116.40772581475512</v>
       </c>
       <c r="E11">
-        <v>3.02475</v>
+        <v>2.07083</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2631,16 +2193,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-882.0166293167356</v>
+        <v>-875.4043732276143</v>
       </c>
       <c r="C12">
-        <v>0.09258381716689364</v>
+        <v>0.09744583664104756</v>
       </c>
       <c r="D12">
-        <v>99.21412114561242</v>
+        <v>121.30487392470667</v>
       </c>
       <c r="E12">
-        <v>1.92454</v>
+        <v>2.10828</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2648,16 +2210,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-881.0038772467648</v>
+        <v>-874.1916742219892</v>
       </c>
       <c r="C13">
-        <v>0.09761644567874225</v>
+        <v>0.07888713804810002</v>
       </c>
       <c r="D13">
-        <v>123.41623533622925</v>
+        <v>144.30555211022192</v>
       </c>
       <c r="E13">
-        <v>1.53793</v>
+        <v>1.63279</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2665,16 +2227,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-880.4474749333087</v>
+        <v>-873.3904528357409</v>
       </c>
       <c r="C14">
-        <v>0.09892752725753418</v>
+        <v>0.0840217155103531</v>
       </c>
       <c r="D14">
-        <v>150.44235013734192</v>
+        <v>162.1007443254911</v>
       </c>
       <c r="E14">
-        <v>1.65381</v>
+        <v>1.30856</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2682,16 +2244,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-879.6203012617177</v>
+        <v>-872.8539477913196</v>
       </c>
       <c r="C15">
-        <v>0.09626025511637883</v>
+        <v>0.08363264703545267</v>
       </c>
       <c r="D15">
-        <v>159.6390183173296</v>
+        <v>170.2332318372572</v>
       </c>
       <c r="E15">
-        <v>1.35786</v>
+        <v>1.09111</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2699,16 +2261,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-879.1737663061842</v>
+        <v>-872.5269929079709</v>
       </c>
       <c r="C16">
-        <v>0.09911351402923216</v>
+        <v>0.09815636638961156</v>
       </c>
       <c r="D16">
-        <v>184.7150404239752</v>
+        <v>182.0298068592124</v>
       </c>
       <c r="E16">
-        <v>0.98464</v>
+        <v>0.84807</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2716,16 +2278,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-878.9363583862756</v>
+        <v>-872.3307120677721</v>
       </c>
       <c r="C17">
-        <v>0.08726189507487854</v>
+        <v>0.09775872252022068</v>
       </c>
       <c r="D17">
-        <v>208.2253202859585</v>
+        <v>266.74577735248636</v>
       </c>
       <c r="E17">
-        <v>0.8105</v>
+        <v>0.6639</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2733,16 +2295,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-878.742356390927</v>
+        <v>-872.2158010605549</v>
       </c>
       <c r="C18">
-        <v>0.08989689780132472</v>
+        <v>0.08292026732766816</v>
       </c>
       <c r="D18">
-        <v>221.60458808542884</v>
+        <v>201.2583699969004</v>
       </c>
       <c r="E18">
-        <v>0.6073</v>
+        <v>0.63423</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2750,16 +2312,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-878.6210250595127</v>
+        <v>-872.0827588343163</v>
       </c>
       <c r="C19">
-        <v>0.09679099328381432</v>
+        <v>0.0998194691589269</v>
       </c>
       <c r="D19">
-        <v>277.7847376818264</v>
+        <v>257.3344786635698</v>
       </c>
       <c r="E19">
-        <v>0.36611</v>
+        <v>0.43766</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2767,16 +2329,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-878.5783275583477</v>
+        <v>-872.0182461898708</v>
       </c>
       <c r="C20">
-        <v>0.07729442147985632</v>
+        <v>0.09909756727041298</v>
       </c>
       <c r="D20">
-        <v>311.2301216971355</v>
+        <v>272.7459603844513</v>
       </c>
       <c r="E20">
-        <v>0.17089</v>
+        <v>0.17398</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2784,16 +2346,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-878.5678950224758</v>
+        <v>-871.5202085289579</v>
       </c>
       <c r="C21">
-        <v>0.09707042980079371</v>
+        <v>0.09438138078878205</v>
       </c>
       <c r="D21">
-        <v>361.81735112287646</v>
+        <v>353.6422405955764</v>
       </c>
       <c r="E21">
-        <v>0.05438</v>
+        <v>0.19959</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2801,16 +2363,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-878.5016668375587</v>
+        <v>-871.5064978994183</v>
       </c>
       <c r="C22">
-        <v>0.09463546338365228</v>
+        <v>0.09964734058321945</v>
       </c>
       <c r="D22">
-        <v>392.9611277981179</v>
+        <v>385.810631171031</v>
       </c>
       <c r="E22">
-        <v>0.03169</v>
+        <v>0.01843</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2818,16 +2380,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-878.4701146021378</v>
+        <v>-871.4563561903781</v>
       </c>
       <c r="C23">
-        <v>0.09279186957798459</v>
+        <v>0.08422251365183987</v>
       </c>
       <c r="D23">
-        <v>370.10896260476414</v>
+        <v>424.54879860033765</v>
       </c>
       <c r="E23">
-        <v>0.03036</v>
+        <v>0.01638</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2835,16 +2397,420 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-878.4697626433847</v>
+        <v>-871.4302886416392</v>
       </c>
       <c r="C24">
-        <v>0.08947362980391352</v>
+        <v>0.08325699394982969</v>
       </c>
       <c r="D24">
-        <v>453.82881363031385</v>
+        <v>354.05712719523586</v>
       </c>
       <c r="E24">
-        <v>0.01986</v>
+        <v>0.00316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1518.1300477206896</v>
+      </c>
+      <c r="C2">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <v>11.362013762871948</v>
+      </c>
+      <c r="E2">
+        <v>49.8785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-1024.1734852945565</v>
+      </c>
+      <c r="C3">
+        <v>0.05324174989841829</v>
+      </c>
+      <c r="D3">
+        <v>8.67908748578894</v>
+      </c>
+      <c r="E3">
+        <v>15.65992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-955.4344469708035</v>
+      </c>
+      <c r="C4">
+        <v>0.09068393926219658</v>
+      </c>
+      <c r="D4">
+        <v>17.637778106828613</v>
+      </c>
+      <c r="E4">
+        <v>10.91201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-928.3809285701966</v>
+      </c>
+      <c r="C5">
+        <v>0.09877906112820255</v>
+      </c>
+      <c r="D5">
+        <v>24.85014074147986</v>
+      </c>
+      <c r="E5">
+        <v>7.05568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-914.9747720189687</v>
+      </c>
+      <c r="C6">
+        <v>0.09748960802484263</v>
+      </c>
+      <c r="D6">
+        <v>30.998753666638184</v>
+      </c>
+      <c r="E6">
+        <v>6.27608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-903.8298211054771</v>
+      </c>
+      <c r="C7">
+        <v>0.09359448606753212</v>
+      </c>
+      <c r="D7">
+        <v>57.39552102597973</v>
+      </c>
+      <c r="E7">
+        <v>5.52899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-894.9646758288857</v>
+      </c>
+      <c r="C8">
+        <v>0.09899945205468558</v>
+      </c>
+      <c r="D8">
+        <v>44.99419539518494</v>
+      </c>
+      <c r="E8">
+        <v>4.91899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-889.0170611834408</v>
+      </c>
+      <c r="C9">
+        <v>0.09974007613868954</v>
+      </c>
+      <c r="D9">
+        <v>73.2339949423645</v>
+      </c>
+      <c r="E9">
+        <v>3.39873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-886.3495198824335</v>
+      </c>
+      <c r="C10">
+        <v>0.09655968265952185</v>
+      </c>
+      <c r="D10">
+        <v>107.82346009631556</v>
+      </c>
+      <c r="E10">
+        <v>2.81828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-884.1219411448507</v>
+      </c>
+      <c r="C11">
+        <v>0.09905351937452642</v>
+      </c>
+      <c r="D11">
+        <v>136.3992937883319</v>
+      </c>
+      <c r="E11">
+        <v>3.02475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-882.0166293167356</v>
+      </c>
+      <c r="C12">
+        <v>0.09258381716689364</v>
+      </c>
+      <c r="D12">
+        <v>153.68586200795482</v>
+      </c>
+      <c r="E12">
+        <v>1.92454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-881.0038772467648</v>
+      </c>
+      <c r="C13">
+        <v>0.09761644567874225</v>
+      </c>
+      <c r="D13">
+        <v>169.58646448214282</v>
+      </c>
+      <c r="E13">
+        <v>1.53793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-880.4474749333087</v>
+      </c>
+      <c r="C14">
+        <v>0.09892752725753418</v>
+      </c>
+      <c r="D14">
+        <v>203.50751735110939</v>
+      </c>
+      <c r="E14">
+        <v>1.65381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>-879.6203012617177</v>
+      </c>
+      <c r="C15">
+        <v>0.09626025511637883</v>
+      </c>
+      <c r="D15">
+        <v>206.2225958048932</v>
+      </c>
+      <c r="E15">
+        <v>1.35786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-879.1737663061842</v>
+      </c>
+      <c r="C16">
+        <v>0.09911351402923216</v>
+      </c>
+      <c r="D16">
+        <v>240.04075829845726</v>
+      </c>
+      <c r="E16">
+        <v>0.98464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-878.9363583862756</v>
+      </c>
+      <c r="C17">
+        <v>0.08726189507487854</v>
+      </c>
+      <c r="D17">
+        <v>249.16273336071046</v>
+      </c>
+      <c r="E17">
+        <v>0.8105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-878.742356390927</v>
+      </c>
+      <c r="C18">
+        <v>0.08989689780132472</v>
+      </c>
+      <c r="D18">
+        <v>267.97994149850405</v>
+      </c>
+      <c r="E18">
+        <v>0.6073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>-878.6210250595127</v>
+      </c>
+      <c r="C19">
+        <v>0.09679099328381432</v>
+      </c>
+      <c r="D19">
+        <v>325.19692676334046</v>
+      </c>
+      <c r="E19">
+        <v>0.36611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>-878.5783275583477</v>
+      </c>
+      <c r="C20">
+        <v>0.07729442147985632</v>
+      </c>
+      <c r="D20">
+        <v>345.17827273857176</v>
+      </c>
+      <c r="E20">
+        <v>0.17089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>-878.5678950224758</v>
+      </c>
+      <c r="C21">
+        <v>0.09707042980079371</v>
+      </c>
+      <c r="D21">
+        <v>426.72028555039014</v>
+      </c>
+      <c r="E21">
+        <v>0.05438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>-878.5016668375587</v>
+      </c>
+      <c r="C22">
+        <v>0.09463546338365228</v>
+      </c>
+      <c r="D22">
+        <v>449.47652568367124</v>
+      </c>
+      <c r="E22">
+        <v>0.03169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>-878.4701146021378</v>
+      </c>
+      <c r="C23">
+        <v>0.09279186957798459</v>
+      </c>
+      <c r="D23">
+        <v>441.08593042381386</v>
+      </c>
+      <c r="E23">
+        <v>0.03036</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2854,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>6.537821305724365</v>
+        <v>10.884181878255493</v>
       </c>
       <c r="E2">
         <v>50.98638</v>
@@ -2905,7 +2871,7 @@
         <v>0.09612305304312864</v>
       </c>
       <c r="D3">
-        <v>8.195645536045777</v>
+        <v>8.852566488450561</v>
       </c>
       <c r="E3">
         <v>14.6763</v>
@@ -2922,7 +2888,7 @@
         <v>0.09386200758235391</v>
       </c>
       <c r="D4">
-        <v>9.014841831069091</v>
+        <v>13.921145759514161</v>
       </c>
       <c r="E4">
         <v>10.96624</v>
@@ -2939,7 +2905,7 @@
         <v>0.09934275680489114</v>
       </c>
       <c r="D5">
-        <v>19.572505239307496</v>
+        <v>28.625342279019407</v>
       </c>
       <c r="E5">
         <v>9.82825</v>
@@ -2956,7 +2922,7 @@
         <v>0.09599903134519107</v>
       </c>
       <c r="D6">
-        <v>25.040027017932985</v>
+        <v>32.92864405173633</v>
       </c>
       <c r="E6">
         <v>7.15397</v>
@@ -2973,7 +2939,7 @@
         <v>0.09725866151024286</v>
       </c>
       <c r="D7">
-        <v>37.37139347850684</v>
+        <v>45.453276348391846</v>
       </c>
       <c r="E7">
         <v>4.66303</v>
@@ -2990,7 +2956,7 @@
         <v>0.09936998311838842</v>
       </c>
       <c r="D8">
-        <v>54.52320485007751</v>
+        <v>59.14286945178564</v>
       </c>
       <c r="E8">
         <v>4.66254</v>
@@ -3007,7 +2973,7 @@
         <v>0.07139677962395376</v>
       </c>
       <c r="D9">
-        <v>49.79237544691809</v>
+        <v>55.91971762559949</v>
       </c>
       <c r="E9">
         <v>3.71136</v>
@@ -3024,7 +2990,7 @@
         <v>0.08818368276101292</v>
       </c>
       <c r="D10">
-        <v>92.91094598459863</v>
+        <v>116.60652428351514</v>
       </c>
       <c r="E10">
         <v>2.26484</v>
@@ -3041,7 +3007,7 @@
         <v>0.09954129572832128</v>
       </c>
       <c r="D11">
-        <v>70.04837500584216</v>
+        <v>83.20625189155822</v>
       </c>
       <c r="E11">
         <v>1.53737</v>
@@ -3058,7 +3024,7 @@
         <v>0.09747753207140526</v>
       </c>
       <c r="D12">
-        <v>91.19699352910645</v>
+        <v>104.35241505430884</v>
       </c>
       <c r="E12">
         <v>1.03671</v>
@@ -3075,7 +3041,7 @@
         <v>0.08503216029093685</v>
       </c>
       <c r="D13">
-        <v>117.46064442719336</v>
+        <v>137.806115627572</v>
       </c>
       <c r="E13">
         <v>0.85877</v>
@@ -3092,7 +3058,7 @@
         <v>0.09983995558319662</v>
       </c>
       <c r="D14">
-        <v>147.1990771022068</v>
+        <v>187.09255614029126</v>
       </c>
       <c r="E14">
         <v>0.88297</v>
@@ -3109,7 +3075,7 @@
         <v>0.09188451487528208</v>
       </c>
       <c r="D15">
-        <v>157.85195771081507</v>
+        <v>204.32751843935583</v>
       </c>
       <c r="E15">
         <v>0.55845</v>
@@ -3126,7 +3092,7 @@
         <v>0.08869332815337765</v>
       </c>
       <c r="D16">
-        <v>214.20087348355835</v>
+        <v>267.91771602719444</v>
       </c>
       <c r="E16">
         <v>0.32113</v>
@@ -3143,7 +3109,7 @@
         <v>0.09775383093795824</v>
       </c>
       <c r="D17">
-        <v>226.28109711802733</v>
+        <v>257.50921676239454</v>
       </c>
       <c r="E17">
         <v>0.25707</v>
@@ -3160,7 +3126,7 @@
         <v>0.09839997382117582</v>
       </c>
       <c r="D18">
-        <v>211.3995164878269</v>
+        <v>221.9680309509192</v>
       </c>
       <c r="E18">
         <v>0.10489</v>
@@ -3177,7 +3143,7 @@
         <v>0.09976277842720226</v>
       </c>
       <c r="D19">
-        <v>229.92143307049196</v>
+        <v>252.97706027805629</v>
       </c>
       <c r="E19">
         <v>0.06982</v>
@@ -3194,7 +3160,7 @@
         <v>0.09525461336981096</v>
       </c>
       <c r="D20">
-        <v>240.78706712111256</v>
+        <v>283.5817339614471</v>
       </c>
       <c r="E20">
         <v>0.0</v>
@@ -3241,7 +3207,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>9.427765407750611</v>
+        <v>8.22520971851892</v>
       </c>
       <c r="E2">
         <v>45.76267</v>
@@ -3258,7 +3224,7 @@
         <v>0.0992015180349575</v>
       </c>
       <c r="D3">
-        <v>11.940395460039307</v>
+        <v>5.442699248924072</v>
       </c>
       <c r="E3">
         <v>20.65053</v>
@@ -3275,7 +3241,7 @@
         <v>0.09781393282021301</v>
       </c>
       <c r="D4">
-        <v>17.970755755777343</v>
+        <v>17.266542421389037</v>
       </c>
       <c r="E4">
         <v>11.16306</v>
@@ -3292,7 +3258,7 @@
         <v>0.09814060091856644</v>
       </c>
       <c r="D5">
-        <v>22.828347458737305</v>
+        <v>18.27006436684485</v>
       </c>
       <c r="E5">
         <v>8.45888</v>
@@ -3309,7 +3275,7 @@
         <v>0.08931025951545236</v>
       </c>
       <c r="D6">
-        <v>32.95922837891236</v>
+        <v>28.510462297540037</v>
       </c>
       <c r="E6">
         <v>6.55358</v>
@@ -3326,7 +3292,7 @@
         <v>0.09790672583042272</v>
       </c>
       <c r="D7">
-        <v>36.819764370257566</v>
+        <v>43.79026333808765</v>
       </c>
       <c r="E7">
         <v>5.22163</v>
@@ -3343,7 +3309,7 @@
         <v>0.09782340069268103</v>
       </c>
       <c r="D8">
-        <v>58.31374190278442</v>
+        <v>63.4835682557594</v>
       </c>
       <c r="E8">
         <v>4.15418</v>
@@ -3360,7 +3326,7 @@
         <v>0.09916799418021376</v>
       </c>
       <c r="D9">
-        <v>74.15061389471741</v>
+        <v>76.45666844638147</v>
       </c>
       <c r="E9">
         <v>3.09202</v>
@@ -3377,7 +3343,7 @@
         <v>0.09988336176621804</v>
       </c>
       <c r="D10">
-        <v>80.59372949595446</v>
+        <v>84.26894934427881</v>
       </c>
       <c r="E10">
         <v>2.90556</v>
@@ -3394,7 +3360,7 @@
         <v>0.09899986211541943</v>
       </c>
       <c r="D11">
-        <v>95.92834827107251</v>
+        <v>111.8149895719032</v>
       </c>
       <c r="E11">
         <v>2.46375</v>
@@ -3411,7 +3377,7 @@
         <v>0.09686295842066492</v>
       </c>
       <c r="D12">
-        <v>113.35855770453979</v>
+        <v>134.59169295173157</v>
       </c>
       <c r="E12">
         <v>2.36549</v>
@@ -3428,7 +3394,7 @@
         <v>0.09986873219393157</v>
       </c>
       <c r="D13">
-        <v>131.15742862887086</v>
+        <v>152.79597571725378</v>
       </c>
       <c r="E13">
         <v>2.25149</v>
@@ -3445,7 +3411,7 @@
         <v>0.09867198599418943</v>
       </c>
       <c r="D14">
-        <v>133.98603043758422</v>
+        <v>179.47475538955567</v>
       </c>
       <c r="E14">
         <v>1.95198</v>
@@ -3462,7 +3428,7 @@
         <v>0.09940638106981964</v>
       </c>
       <c r="D15">
-        <v>177.76333478367297</v>
+        <v>203.85780384123328</v>
       </c>
       <c r="E15">
         <v>1.4316</v>
@@ -3479,7 +3445,7 @@
         <v>0.09507009266520877</v>
       </c>
       <c r="D16">
-        <v>221.8982593208296</v>
+        <v>215.4897975753955</v>
       </c>
       <c r="E16">
         <v>1.00017</v>
@@ -3496,7 +3462,7 @@
         <v>0.09211921354721316</v>
       </c>
       <c r="D17">
-        <v>260.55109876470885</v>
+        <v>262.49221109662636</v>
       </c>
       <c r="E17">
         <v>0.53868</v>
@@ -3513,7 +3479,7 @@
         <v>0.09953639423461434</v>
       </c>
       <c r="D18">
-        <v>240.41592711176403</v>
+        <v>259.96674881848134</v>
       </c>
       <c r="E18">
         <v>0.51729</v>
@@ -3530,7 +3496,7 @@
         <v>0.08587785536499369</v>
       </c>
       <c r="D19">
-        <v>280.4692305138196</v>
+        <v>287.6859743469113</v>
       </c>
       <c r="E19">
         <v>0.25061</v>
@@ -3547,7 +3513,7 @@
         <v>0.09989015419782768</v>
       </c>
       <c r="D20">
-        <v>357.41141183675967</v>
+        <v>349.222073956511</v>
       </c>
       <c r="E20">
         <v>0.19106</v>
@@ -3564,7 +3530,7 @@
         <v>0.08821252429367675</v>
       </c>
       <c r="D21">
-        <v>357.2184459528529</v>
+        <v>347.58893459651426</v>
       </c>
       <c r="E21">
         <v>0.09331</v>
@@ -3581,7 +3547,7 @@
         <v>0.09406537780067245</v>
       </c>
       <c r="D22">
-        <v>319.03745962056485</v>
+        <v>342.40884064083986</v>
       </c>
       <c r="E22">
         <v>0.00114</v>
@@ -3598,7 +3564,7 @@
         <v>0.09774865233459387</v>
       </c>
       <c r="D23">
-        <v>270.668946080646</v>
+        <v>321.83032781476453</v>
       </c>
       <c r="E23">
         <v>0.0</v>
@@ -3611,7 +3577,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -3645,7 +3611,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>8.787208360830444</v>
+        <v>13.188496057563722</v>
       </c>
       <c r="E2">
         <v>50.15144</v>
@@ -3662,7 +3628,7 @@
         <v>0.09297068929880128</v>
       </c>
       <c r="D3">
-        <v>5.105371341290283</v>
+        <v>12.998282446627686</v>
       </c>
       <c r="E3">
         <v>18.30638</v>
@@ -3679,7 +3645,7 @@
         <v>0.0977194797532514</v>
       </c>
       <c r="D4">
-        <v>8.82338514271753</v>
+        <v>13.6559045824021</v>
       </c>
       <c r="E4">
         <v>11.3204</v>
@@ -3696,7 +3662,7 @@
         <v>0.09987292031749413</v>
       </c>
       <c r="D5">
-        <v>17.8537058405708</v>
+        <v>31.051689201598265</v>
       </c>
       <c r="E5">
         <v>6.94051</v>
@@ -3713,7 +3679,7 @@
         <v>0.09957068571696505</v>
       </c>
       <c r="D6">
-        <v>27.283153585452514</v>
+        <v>33.51818181194092</v>
       </c>
       <c r="E6">
         <v>6.37029</v>
@@ -3730,7 +3696,7 @@
         <v>0.09953867610259348</v>
       </c>
       <c r="D7">
-        <v>36.09852849972083</v>
+        <v>42.66190607276648</v>
       </c>
       <c r="E7">
         <v>6.41597</v>
@@ -3747,7 +3713,7 @@
         <v>0.09840219039387865</v>
       </c>
       <c r="D8">
-        <v>54.073167398926515</v>
+        <v>66.81096644564832</v>
       </c>
       <c r="E8">
         <v>4.8719</v>
@@ -3764,7 +3730,7 @@
         <v>0.09915898575802069</v>
       </c>
       <c r="D9">
-        <v>57.80176259506201</v>
+        <v>70.2656417689043</v>
       </c>
       <c r="E9">
         <v>3.7942</v>
@@ -3781,7 +3747,7 @@
         <v>0.09912992492625276</v>
       </c>
       <c r="D10">
-        <v>103.83402305455469</v>
+        <v>117.36114711466175</v>
       </c>
       <c r="E10">
         <v>3.45379</v>
@@ -3798,7 +3764,7 @@
         <v>0.09565264547003155</v>
       </c>
       <c r="D11">
-        <v>94.86361860913159</v>
+        <v>122.31683110777075</v>
       </c>
       <c r="E11">
         <v>3.59185</v>
@@ -3815,7 +3781,7 @@
         <v>0.0992184728159632</v>
       </c>
       <c r="D12">
-        <v>96.03566417160694</v>
+        <v>110.68759658060816</v>
       </c>
       <c r="E12">
         <v>2.64225</v>
@@ -3832,7 +3798,7 @@
         <v>0.09064834332990093</v>
       </c>
       <c r="D13">
-        <v>155.0126697886549</v>
+        <v>174.22038384802013</v>
       </c>
       <c r="E13">
         <v>1.92869</v>
@@ -3849,7 +3815,7 @@
         <v>0.09734849581095009</v>
       </c>
       <c r="D14">
-        <v>138.18223119548134</v>
+        <v>150.73714271777942</v>
       </c>
       <c r="E14">
         <v>1.67475</v>
@@ -3866,7 +3832,7 @@
         <v>0.09978012070948002</v>
       </c>
       <c r="D15">
-        <v>188.66319935538647</v>
+        <v>204.4638800435531</v>
       </c>
       <c r="E15">
         <v>0.98923</v>
@@ -3883,7 +3849,7 @@
         <v>0.09050002014397045</v>
       </c>
       <c r="D16">
-        <v>161.00462730152685</v>
+        <v>183.65038855207032</v>
       </c>
       <c r="E16">
         <v>0.58042</v>
@@ -3900,7 +3866,7 @@
         <v>0.09656621571486504</v>
       </c>
       <c r="D17">
-        <v>162.81802216143652</v>
+        <v>183.94664223012805</v>
       </c>
       <c r="E17">
         <v>0.47859</v>
@@ -3917,7 +3883,7 @@
         <v>0.08398376364122992</v>
       </c>
       <c r="D18">
-        <v>221.77108460450597</v>
+        <v>234.0855992201792</v>
       </c>
       <c r="E18">
         <v>0.477</v>
@@ -3934,7 +3900,7 @@
         <v>0.09654845218873497</v>
       </c>
       <c r="D19">
-        <v>252.0893335701084</v>
+        <v>279.77200178282897</v>
       </c>
       <c r="E19">
         <v>0.33524</v>
@@ -3951,7 +3917,7 @@
         <v>0.09988125433593505</v>
       </c>
       <c r="D20">
-        <v>308.1165912132157</v>
+        <v>327.28546857665566</v>
       </c>
       <c r="E20">
         <v>0.27031</v>
@@ -3968,7 +3934,7 @@
         <v>0.09942798606698777</v>
       </c>
       <c r="D21">
-        <v>310.59681002277733</v>
+        <v>318.1587367128104</v>
       </c>
       <c r="E21">
         <v>0.06649</v>
@@ -3985,7 +3951,7 @@
         <v>0.09988932506319852</v>
       </c>
       <c r="D22">
-        <v>306.76414532741</v>
+        <v>310.0878343854027</v>
       </c>
       <c r="E22">
         <v>0.05207</v>
@@ -4002,7 +3968,7 @@
         <v>0.09684201827316559</v>
       </c>
       <c r="D23">
-        <v>339.8692835947645</v>
+        <v>332.1613142547992</v>
       </c>
       <c r="E23">
         <v>0.04561</v>
@@ -4019,27 +3985,10 @@
         <v>0.08818490108366972</v>
       </c>
       <c r="D24">
-        <v>408.6085899765017</v>
+        <v>450.55222945655674</v>
       </c>
       <c r="E24">
         <v>0.00072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>-850.8159266383122</v>
-      </c>
-      <c r="C25">
-        <v>0.07621166941233676</v>
-      </c>
-      <c r="D25">
-        <v>386.4435299443379</v>
-      </c>
-      <c r="E25">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -4083,7 +4032,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>11.211879604951783</v>
+        <v>8.269555674764648</v>
       </c>
       <c r="E2">
         <v>50.42128</v>
@@ -4100,7 +4049,7 @@
         <v>0.09898518853224708</v>
       </c>
       <c r="D3">
-        <v>10.006909118658204</v>
+        <v>6.797880693672485</v>
       </c>
       <c r="E3">
         <v>16.0399</v>
@@ -4117,7 +4066,7 @@
         <v>0.09970040362010138</v>
       </c>
       <c r="D4">
-        <v>16.980805510349853</v>
+        <v>11.578326012588622</v>
       </c>
       <c r="E4">
         <v>12.12212</v>
@@ -4134,7 +4083,7 @@
         <v>0.09714612019122303</v>
       </c>
       <c r="D5">
-        <v>26.602494141306764</v>
+        <v>20.77046259825647</v>
       </c>
       <c r="E5">
         <v>9.33725</v>
@@ -4151,7 +4100,7 @@
         <v>0.09923387818049591</v>
       </c>
       <c r="D6">
-        <v>40.622964791360104</v>
+        <v>37.33989582570764</v>
       </c>
       <c r="E6">
         <v>6.26055</v>
@@ -4168,7 +4117,7 @@
         <v>0.09435278549696385</v>
       </c>
       <c r="D7">
-        <v>41.164719127564695</v>
+        <v>32.66997170919641</v>
       </c>
       <c r="E7">
         <v>5.6902</v>
@@ -4185,7 +4134,7 @@
         <v>0.09806712363076171</v>
       </c>
       <c r="D8">
-        <v>57.811343736304686</v>
+        <v>47.89605228331116</v>
       </c>
       <c r="E8">
         <v>4.29233</v>
@@ -4202,7 +4151,7 @@
         <v>0.09642999923229781</v>
       </c>
       <c r="D9">
-        <v>69.02208891501478</v>
+        <v>62.05297244778149</v>
       </c>
       <c r="E9">
         <v>2.63036</v>
@@ -4219,7 +4168,7 @@
         <v>0.09796384584325916</v>
       </c>
       <c r="D10">
-        <v>90.49161752116748</v>
+        <v>77.99524598710083</v>
       </c>
       <c r="E10">
         <v>1.89689</v>
@@ -4236,7 +4185,7 @@
         <v>0.07640841695400412</v>
       </c>
       <c r="D11">
-        <v>79.99921198341565</v>
+        <v>74.7723485425437</v>
       </c>
       <c r="E11">
         <v>1.12401</v>
@@ -4253,7 +4202,7 @@
         <v>0.09526042982486661</v>
       </c>
       <c r="D12">
-        <v>91.21939343277478</v>
+        <v>76.78817735723267</v>
       </c>
       <c r="E12">
         <v>1.265</v>
@@ -4270,7 +4219,7 @@
         <v>0.09948611558447694</v>
       </c>
       <c r="D13">
-        <v>135.7386359733789</v>
+        <v>117.60845835707104</v>
       </c>
       <c r="E13">
         <v>0.92088</v>
@@ -4287,7 +4236,7 @@
         <v>0.09571965962920229</v>
       </c>
       <c r="D14">
-        <v>163.93169512588673</v>
+        <v>137.88536245221204</v>
       </c>
       <c r="E14">
         <v>0.79003</v>
@@ -4304,7 +4253,7 @@
         <v>0.0871030603178153</v>
       </c>
       <c r="D15">
-        <v>166.56845579343494</v>
+        <v>149.79328750555823</v>
       </c>
       <c r="E15">
         <v>0.64566</v>
@@ -4321,7 +4270,7 @@
         <v>0.09615138347781944</v>
       </c>
       <c r="D16">
-        <v>261.3214959943761</v>
+        <v>226.95031376440662</v>
       </c>
       <c r="E16">
         <v>0.55608</v>
@@ -4338,7 +4287,7 @@
         <v>0.08788256241642207</v>
       </c>
       <c r="D17">
-        <v>220.6153898244193</v>
+        <v>197.2662086638092</v>
       </c>
       <c r="E17">
         <v>0.5081</v>
@@ -4355,7 +4304,7 @@
         <v>0.09477604279034617</v>
       </c>
       <c r="D18">
-        <v>261.03703507522204</v>
+        <v>264.15044690997314</v>
       </c>
       <c r="E18">
         <v>0.23999</v>
@@ -4372,7 +4321,7 @@
         <v>0.08237087755679107</v>
       </c>
       <c r="D19">
-        <v>262.6669306084132</v>
+        <v>274.8785439862816</v>
       </c>
       <c r="E19">
         <v>0.1765</v>
@@ -4389,7 +4338,7 @@
         <v>0.09162052404426936</v>
       </c>
       <c r="D20">
-        <v>322.80826519909203</v>
+        <v>348.8671579766852</v>
       </c>
       <c r="E20">
         <v>0.08473</v>
@@ -4406,7 +4355,7 @@
         <v>0.09797653820859926</v>
       </c>
       <c r="D21">
-        <v>339.28370022855484</v>
+        <v>353.99245653506165</v>
       </c>
       <c r="E21">
         <v>0.06662</v>
@@ -4423,7 +4372,7 @@
         <v>0.09603621816504916</v>
       </c>
       <c r="D22">
-        <v>333.84575689677354</v>
+        <v>335.59201432089577</v>
       </c>
       <c r="E22">
         <v>0.0066</v>
@@ -4440,7 +4389,7 @@
         <v>0.09254468282570674</v>
       </c>
       <c r="D23">
-        <v>366.6438101141093</v>
+        <v>367.79035363053885</v>
       </c>
       <c r="E23">
         <v>0.00101</v>
@@ -4457,7 +4406,7 @@
         <v>0.09923374374680037</v>
       </c>
       <c r="D24">
-        <v>356.3419253978634</v>
+        <v>380.43819428618264</v>
       </c>
       <c r="E24">
         <v>0.0</v>
@@ -4504,7 +4453,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>6.1434270141396485</v>
+        <v>6.526382197135376</v>
       </c>
       <c r="E2">
         <v>50.93931</v>
@@ -4521,7 +4470,7 @@
         <v>0.0993500047840717</v>
       </c>
       <c r="D3">
-        <v>8.98308929982544</v>
+        <v>8.038892398458374</v>
       </c>
       <c r="E3">
         <v>17.86041</v>
@@ -4538,7 +4487,7 @@
         <v>0.09843115771223783</v>
       </c>
       <c r="D4">
-        <v>13.666955565507568</v>
+        <v>11.113339053290893</v>
       </c>
       <c r="E4">
         <v>11.31256</v>
@@ -4555,7 +4504,7 @@
         <v>0.09918159769391587</v>
       </c>
       <c r="D5">
-        <v>29.384335289958983</v>
+        <v>25.066845368446288</v>
       </c>
       <c r="E5">
         <v>7.83537</v>
@@ -4572,7 +4521,7 @@
         <v>0.09869727558816527</v>
       </c>
       <c r="D6">
-        <v>28.841517331313476</v>
+        <v>30.54868378449524</v>
       </c>
       <c r="E6">
         <v>5.87475</v>
@@ -4589,7 +4538,7 @@
         <v>0.09777435554541165</v>
       </c>
       <c r="D7">
-        <v>47.171461365442624</v>
+        <v>39.70133621913208</v>
       </c>
       <c r="E7">
         <v>5.82681</v>
@@ -4606,7 +4555,7 @@
         <v>0.09986187868857405</v>
       </c>
       <c r="D8">
-        <v>62.09363262070044</v>
+        <v>54.583621243957644</v>
       </c>
       <c r="E8">
         <v>4.65199</v>
@@ -4623,7 +4572,7 @@
         <v>0.09922412978802228</v>
       </c>
       <c r="D9">
-        <v>76.1764904326687</v>
+        <v>76.02429668864332</v>
       </c>
       <c r="E9">
         <v>2.63423</v>
@@ -4640,7 +4589,7 @@
         <v>0.09333579638752296</v>
       </c>
       <c r="D10">
-        <v>84.04663207974085</v>
+        <v>83.06957549837354</v>
       </c>
       <c r="E10">
         <v>2.1888</v>
@@ -4657,7 +4606,7 @@
         <v>0.09834922195893442</v>
       </c>
       <c r="D11">
-        <v>110.36769603489331</v>
+        <v>112.67605970040943</v>
       </c>
       <c r="E11">
         <v>1.73886</v>
@@ -4674,7 +4623,7 @@
         <v>0.09923751286660276</v>
       </c>
       <c r="D12">
-        <v>110.55856155293604</v>
+        <v>121.00065016984631</v>
       </c>
       <c r="E12">
         <v>1.42232</v>
@@ -4691,7 +4640,7 @@
         <v>0.08451194572423976</v>
       </c>
       <c r="D13">
-        <v>124.63058842344641</v>
+        <v>141.05927094276635</v>
       </c>
       <c r="E13">
         <v>1.21504</v>
@@ -4708,7 +4657,7 @@
         <v>0.09617529887675401</v>
       </c>
       <c r="D14">
-        <v>154.05283145001818</v>
+        <v>176.13400728100305</v>
       </c>
       <c r="E14">
         <v>0.99682</v>
@@ -4725,7 +4674,7 @@
         <v>0.09294853159918484</v>
       </c>
       <c r="D15">
-        <v>174.28844664368884</v>
+        <v>209.50977448354064</v>
       </c>
       <c r="E15">
         <v>0.28364</v>
@@ -4742,7 +4691,7 @@
         <v>0.08609129730564008</v>
       </c>
       <c r="D16">
-        <v>217.98086227787707</v>
+        <v>247.84360044304103</v>
       </c>
       <c r="E16">
         <v>0.05663</v>
@@ -4759,7 +4708,7 @@
         <v>0.09988188604558548</v>
       </c>
       <c r="D17">
-        <v>188.2400129683302</v>
+        <v>222.19218309598034</v>
       </c>
       <c r="E17">
         <v>0.0</v>
